--- a/Copy of Brake feel menu of options editable.xlsx
+++ b/Copy of Brake feel menu of options editable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clayton.fellman\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clayton.fellman\Documents\GitHub\Brakes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A00E264-D965-4FFC-AC60-C29E8850E08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3DADEB-C2BB-4C92-8577-551E97160264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="884" activeTab="4" xr2:uid="{4212F05F-1326-43E6-B82E-CDA38701F540}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="884" activeTab="6" xr2:uid="{4212F05F-1326-43E6-B82E-CDA38701F540}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="57" r:id="rId1"/>
@@ -20,10 +20,11 @@
     <sheet name="engine run install" sheetId="56" r:id="rId5"/>
     <sheet name="master cylinder spring" sheetId="39" r:id="rId6"/>
     <sheet name="429 brake feel test" sheetId="58" r:id="rId7"/>
+    <sheet name="712 brake feel test" sheetId="60" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="MC_Bore_Area">[1]GeomAndTestNotes!$B$3</definedName>
@@ -87,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="227">
   <si>
     <t>rad</t>
   </si>
@@ -766,6 +767,9 @@
   <si>
     <t>diff</t>
   </si>
+  <si>
+    <t>nick</t>
+  </si>
 </sst>
 </file>
 
@@ -1116,7 +1120,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1298,6 +1302,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1326,21 +1346,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4842,7 +4852,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'429 brake feel test'!$J$4:$J$7</c15:sqref>
@@ -4869,7 +4879,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'429 brake feel test'!$Z$4:$Z$7</c15:sqref>
@@ -4895,7 +4905,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-8A84-4CCE-8F93-C6EA263265D4}"/>
                   </c:ext>
@@ -5265,8 +5275,22 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>4/29 brake feel test</a:t>
+              <a:t>4/29 Brake Feel Test</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>Doc/Duff</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" baseline="0"/>
+              <a:t> Avg</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6291,7 +6315,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'429 brake feel test'!$J$4:$J$7</c15:sqref>
@@ -6318,7 +6342,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'429 brake feel test'!$N$4:$N$7</c15:sqref>
@@ -6344,7 +6368,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-1ABA-4B7E-B033-048EA9FC1ACD}"/>
                   </c:ext>
@@ -6384,7 +6408,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'429 brake feel test'!$J$4:$J$7</c15:sqref>
@@ -6411,7 +6435,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'429 brake feel test'!$O$4:$O$7</c15:sqref>
@@ -6437,7 +6461,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-1ABA-4B7E-B033-048EA9FC1ACD}"/>
                   </c:ext>
@@ -6476,7 +6500,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'429 brake feel test'!$J$4:$J$7</c15:sqref>
@@ -6503,7 +6527,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'429 brake feel test'!$P$4:$P$7</c15:sqref>
@@ -6529,7 +6553,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-1ABA-4B7E-B033-048EA9FC1ACD}"/>
                   </c:ext>
@@ -6568,7 +6592,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'429 brake feel test'!$J$4:$J$7</c15:sqref>
@@ -6595,7 +6619,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'429 brake feel test'!$Q$4:$Q$7</c15:sqref>
@@ -6621,7 +6645,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-1ABA-4B7E-B033-048EA9FC1ACD}"/>
                   </c:ext>
@@ -6788,6 +6812,2963 @@
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-1ABA-4B7E-B033-048EA9FC1ACD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="738946399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Force application effort level</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="738942239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="738942239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>pressure [psi]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="738946399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>7/12 Brake Feel Test</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>(Nick S.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" baseline="0"/>
+              <a:t> at the pedals</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>LH</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'712 brake feel test'!#REF!</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'712 brake feel test'!$G$4:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>729</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3872-4F9D-BE10-55CD126B54A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>RH</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'712 brake feel test'!#REF!</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'712 brake feel test'!$H$4:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>588.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>735.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3872-4F9D-BE10-55CD126B54A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="738946399"/>
+        <c:axId val="738942239"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="738946399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Force application effort level</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="738942239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="738942239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>pressure [psi]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="738946399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>4/29 brake feel test</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>LH, 17000 lbm, 0 keas, </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'712 brake feel test'!#REF!</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'712 brake feel test'!$N$4:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.19200017290754734</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36236607430099321</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45741847614690267</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48011140253539258</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-83A3-463A-969E-CAA96CD38118}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>LH, 13000 lbm, 0 keas</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'712 brake feel test'!#REF!</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'712 brake feel test'!$P$4:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25595491635800083</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47874109510327623</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60304038982485009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6327157551021062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-83A3-463A-969E-CAA96CD38118}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>light</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>5</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0.124</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0.124</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-83A3-463A-969E-CAA96CD38118}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>moderate</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>5</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0.248</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0.248</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-83A3-463A-969E-CAA96CD38118}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>heavy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="F8C0BA"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="F97D73"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-83A3-463A-969E-CAA96CD38118}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>5</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0.373</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0.373</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-83A3-463A-969E-CAA96CD38118}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1241664367"/>
+        <c:axId val="1241670607"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>RH, 17000 lbm, 0 keas</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'712 brake feel test'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'712 brake feel test'!$O$4:$O$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.16127413491280052</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.32376977745636432</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.4024939702267582</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.48343347818361815</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-83A3-463A-969E-CAA96CD38118}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:v>RH, 13000 lbm, 0 keas</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:prstDash val="sysDash"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'712 brake feel test'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'712 brake feel test'!$Q$4:$Q$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.21577471282640881</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.42826901461414613</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.53121603592927658</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.63706000787286265</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-83A3-463A-969E-CAA96CD38118}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1241664367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Force application effort level</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1241670607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1241670607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Predeicted</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> N_x</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1241664367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>4/29 brake feel test</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>tooch LH</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'712 brake feel test'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'712 brake feel test'!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7A7A-4EAD-B112-FEC7850E88A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>tooch rh</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'712 brake feel test'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'712 brake feel test'!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7A7A-4EAD-B112-FEC7850E88A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>duff lh</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'712 brake feel test'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'712 brake feel test'!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7A7A-4EAD-B112-FEC7850E88A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>duff rh</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'712 brake feel test'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'712 brake feel test'!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7A7A-4EAD-B112-FEC7850E88A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>duff avg lh</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'712 brake feel test'!#REF!</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'712 brake feel test'!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-7A7A-4EAD-B112-FEC7850E88A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>duff avg rh</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'712 brake feel test'!#REF!</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'712 brake feel test'!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-7A7A-4EAD-B112-FEC7850E88A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>tooch avg lh</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'712 brake feel test'!#REF!</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'712 brake feel test'!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-7A7A-4EAD-B112-FEC7850E88A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>tooch avg RH</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'712 brake feel test'!#REF!</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'712 brake feel test'!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-7A7A-4EAD-B112-FEC7850E88A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:v>lh avg</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'712 brake feel test'!#REF!</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'712 brake feel test'!$I$4:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>729</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7A7A-4EAD-B112-FEC7850E88A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:v>rh avg</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'712 brake feel test'!#REF!</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'712 brake feel test'!$J$4:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>588.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>735.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7A7A-4EAD-B112-FEC7850E88A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="738946399"/>
+        <c:axId val="738942239"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:v>doc lh</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="triangle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'712 brake feel test'!$B$4:$B$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>4</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'712 brake feel test'!$C$4:$C$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>266</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>290</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>540</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>506</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>690</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>680</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>728</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>730</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-7A7A-4EAD-B112-FEC7850E88A9}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:v>doc rh</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="triangle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'712 brake feel test'!$B$4:$B$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>4</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'712 brake feel test'!$D$4:$D$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>260</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>236</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>450</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>470</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>575</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>602</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>735</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>736</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-7A7A-4EAD-B112-FEC7850E88A9}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:v>doc avg lh</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:prstDash val="dash"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'712 brake feel test'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'712 brake feel test'!$G$4:$G$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>278</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>523</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>685</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>729</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-7A7A-4EAD-B112-FEC7850E88A9}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:v>doc avg rh</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:prstDash val="dash"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'712 brake feel test'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'712 brake feel test'!$H$4:$H$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>248</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>460</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>588.5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>735.5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-7A7A-4EAD-B112-FEC7850E88A9}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -8526,17 +11507,7 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -8669,17 +11640,7 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
@@ -9601,17 +12562,7 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -9740,17 +12691,7 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
@@ -15056,6 +17997,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -17441,6 +20502,1554 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -23161,6 +27770,125 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{355D97A2-7C18-4C40-A7A7-801BE49AD6EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B36FD311-4988-4425-AB2D-F29AE3D0ACE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C77C2131-E637-4075-8BCF-08129CDFE1D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -23170,7 +27898,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{355D97A2-7C18-4C40-A7A7-801BE49AD6EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{204C5278-8BB5-4A53-BFE7-C7B119DC42D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23654,22 +28382,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
     </row>
     <row r="3" spans="1:111" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="89" t="s">
@@ -26380,8 +31108,8 @@
     <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="121" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+    <row r="1" spans="1:6" s="131" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="131" t="s">
         <v>160</v>
       </c>
     </row>
@@ -26664,10 +31392,10 @@
     </row>
     <row r="26" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="33"/>
-      <c r="C26" s="122" t="s">
+      <c r="C26" s="132" t="s">
         <v>157</v>
       </c>
-      <c r="D26" s="122"/>
+      <c r="D26" s="132"/>
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:15" s="111" customFormat="1" x14ac:dyDescent="0.25">
@@ -26689,12 +31417,12 @@
       <c r="F27" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="G27" s="123" t="s">
+      <c r="G27" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="H27" s="123"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="123"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="133"/>
       <c r="K27" s="110" t="s">
         <v>200</v>
       </c>
@@ -27424,17 +32152,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="134" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -28129,7 +32857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56C7E2D-17CE-4010-BD63-F3F05CBD647D}">
   <dimension ref="A1:AQ124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
@@ -28965,7 +33693,7 @@
     </row>
     <row r="40" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
-      <c r="B40" s="125" t="s">
+      <c r="B40" s="135" t="s">
         <v>162</v>
       </c>
       <c r="C40" s="104">
@@ -28984,7 +33712,7 @@
     </row>
     <row r="41" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="126"/>
+      <c r="B41" s="136"/>
       <c r="C41" s="90">
         <f>[2]!linear_intp_2col(I65:I77,N65:N77,C40)</f>
         <v>5.2219566613659447</v>
@@ -29002,7 +33730,7 @@
     </row>
     <row r="42" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="126"/>
+      <c r="B42" s="136"/>
       <c r="C42" s="91">
         <f>[2]!linear_intp_2col(N65:N77,U65:U77,C41)</f>
         <v>24.202632541596962</v>
@@ -29021,7 +33749,7 @@
     </row>
     <row r="43" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="127" t="s">
+      <c r="B43" s="137" t="s">
         <v>161</v>
       </c>
       <c r="C43" s="105">
@@ -29047,7 +33775,7 @@
     </row>
     <row r="44" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="127"/>
+      <c r="B44" s="137"/>
       <c r="C44" s="91">
         <f>[2]!linear_intp_2col(H65:H77,N65:N77,C43)</f>
         <v>4.0673352057494823</v>
@@ -29072,7 +33800,7 @@
     </row>
     <row r="45" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="127"/>
+      <c r="B45" s="137"/>
       <c r="C45" s="91">
         <f>[2]!linear_intp_2col(N65:N77,U65:U77,C44)</f>
         <v>12.321426890069686</v>
@@ -29097,7 +33825,7 @@
     </row>
     <row r="46" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" s="127" t="s">
+      <c r="B46" s="137" t="s">
         <v>202</v>
       </c>
       <c r="C46" s="106">
@@ -29127,7 +33855,7 @@
     </row>
     <row r="47" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="127"/>
+      <c r="B47" s="137"/>
       <c r="C47" s="91">
         <f>[2]!linear_intp_2col(L65:L76,N65:N76,C46)</f>
         <v>2.4879322378689017</v>
@@ -29152,7 +33880,7 @@
     </row>
     <row r="48" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
-      <c r="B48" s="127"/>
+      <c r="B48" s="137"/>
       <c r="C48" s="91">
         <f>[2]!linear_intp_2col(N65:N76,U65:U76,C47)</f>
         <v>6.0593607293378255</v>
@@ -29177,7 +33905,7 @@
     </row>
     <row r="49" spans="1:42" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" s="127"/>
+      <c r="B49" s="137"/>
       <c r="C49" s="45">
         <f>[2]!linear_intp_2col(L65:L76,K65:K76,C46)</f>
         <v>1.6689710972195779E-2</v>
@@ -29202,7 +33930,7 @@
     </row>
     <row r="50" spans="1:42" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="B50" s="127" t="s">
+      <c r="B50" s="137" t="s">
         <v>197</v>
       </c>
       <c r="C50" s="106">
@@ -29228,7 +33956,7 @@
     </row>
     <row r="51" spans="1:42" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="B51" s="127"/>
+      <c r="B51" s="137"/>
       <c r="C51" s="106">
         <f>C50+C49</f>
         <v>1.9689710972195778E-2</v>
@@ -29252,7 +33980,7 @@
     </row>
     <row r="52" spans="1:42" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
-      <c r="B52" s="127"/>
+      <c r="B52" s="137"/>
       <c r="C52" s="91">
         <f>[2]!linear_intp_2col(K65:K76,N65:N76,C51)</f>
         <v>2.9351417027925915</v>
@@ -29276,7 +34004,7 @@
     </row>
     <row r="53" spans="1:42" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="B53" s="127"/>
+      <c r="B53" s="137"/>
       <c r="C53" s="91">
         <f>[2]!linear_intp_2col(K65:K76,U65:U76,C51)</f>
         <v>6.726038370907494</v>
@@ -29663,30 +34391,30 @@
       <c r="AP61" s="39"/>
     </row>
     <row r="62" spans="1:42" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B62" s="129" t="s">
+      <c r="B62" s="139" t="s">
         <v>185</v>
       </c>
-      <c r="C62" s="129"/>
-      <c r="D62" s="129"/>
-      <c r="E62" s="129"/>
-      <c r="F62" s="129"/>
-      <c r="G62" s="129"/>
-      <c r="H62" s="129"/>
-      <c r="I62" s="129"/>
+      <c r="C62" s="139"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="139"/>
+      <c r="G62" s="139"/>
+      <c r="H62" s="139"/>
+      <c r="I62" s="139"/>
       <c r="J62" s="35"/>
-      <c r="K62" s="128" t="s">
+      <c r="K62" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="L62" s="128"/>
-      <c r="M62" s="128"/>
-      <c r="N62" s="128"/>
-      <c r="O62" s="128"/>
-      <c r="P62" s="128"/>
-      <c r="Q62" s="128"/>
-      <c r="R62" s="128"/>
-      <c r="S62" s="128"/>
-      <c r="T62" s="128"/>
-      <c r="U62" s="128"/>
+      <c r="L62" s="138"/>
+      <c r="M62" s="138"/>
+      <c r="N62" s="138"/>
+      <c r="O62" s="138"/>
+      <c r="P62" s="138"/>
+      <c r="Q62" s="138"/>
+      <c r="R62" s="138"/>
+      <c r="S62" s="138"/>
+      <c r="T62" s="138"/>
+      <c r="U62" s="138"/>
       <c r="V62" s="35"/>
       <c r="W62" s="107" t="s">
         <v>165</v>
@@ -30630,7 +35358,7 @@
         <f t="shared" si="31"/>
         <v>178.64860548793277</v>
       </c>
-      <c r="I69" s="133">
+      <c r="I69" s="124">
         <f t="shared" si="24"/>
         <v>178.64860548793277</v>
       </c>
@@ -30639,7 +35367,7 @@
         <f t="shared" si="17"/>
         <v>4.4124320500116394E-2</v>
       </c>
-      <c r="L69" s="136">
+      <c r="L69" s="127">
         <f t="shared" si="3"/>
         <v>0.22472331898126643</v>
       </c>
@@ -30794,7 +35522,7 @@
         <f t="shared" si="31"/>
         <v>271.25924544232299</v>
       </c>
-      <c r="I70" s="134">
+      <c r="I70" s="125">
         <f t="shared" si="24"/>
         <v>271.25924544232299</v>
       </c>
@@ -30803,7 +35531,7 @@
         <f t="shared" si="17"/>
         <v>5.6341625264076697E-2</v>
       </c>
-      <c r="L70" s="137">
+      <c r="L70" s="128">
         <f t="shared" si="3"/>
         <v>0.28694554120348864</v>
       </c>
@@ -30958,7 +35686,7 @@
         <f t="shared" si="31"/>
         <v>363.86988539671313</v>
       </c>
-      <c r="I71" s="134">
+      <c r="I71" s="125">
         <f t="shared" si="24"/>
         <v>363.86988539671313</v>
       </c>
@@ -30967,7 +35695,7 @@
         <f t="shared" si="17"/>
         <v>6.8558930028037007E-2</v>
       </c>
-      <c r="L71" s="138">
+      <c r="L71" s="129">
         <f t="shared" si="3"/>
         <v>0.34916776342571088</v>
       </c>
@@ -31122,7 +35850,7 @@
         <f t="shared" si="31"/>
         <v>456.48052535110344</v>
       </c>
-      <c r="I72" s="134">
+      <c r="I72" s="125">
         <f t="shared" si="24"/>
         <v>456.48052535110344</v>
       </c>
@@ -31131,7 +35859,7 @@
         <f t="shared" si="17"/>
         <v>8.0776234791997317E-2</v>
       </c>
-      <c r="L72" s="138">
+      <c r="L72" s="129">
         <f t="shared" si="3"/>
         <v>0.41138998564793311</v>
       </c>
@@ -31286,7 +36014,7 @@
         <f t="shared" si="31"/>
         <v>549.09116530549352</v>
       </c>
-      <c r="I73" s="134">
+      <c r="I73" s="125">
         <f t="shared" si="24"/>
         <v>549.09116530549352</v>
       </c>
@@ -31295,7 +36023,7 @@
         <f t="shared" si="17"/>
         <v>9.2993539555957627E-2</v>
       </c>
-      <c r="L73" s="138">
+      <c r="L73" s="129">
         <f t="shared" si="3"/>
         <v>0.47361220787015534</v>
       </c>
@@ -31450,7 +36178,7 @@
         <f t="shared" si="31"/>
         <v>641.7018052598836</v>
       </c>
-      <c r="I74" s="134">
+      <c r="I74" s="125">
         <f t="shared" si="24"/>
         <v>641.7018052598836</v>
       </c>
@@ -31459,7 +36187,7 @@
         <f t="shared" si="17"/>
         <v>0.10521084431991794</v>
       </c>
-      <c r="L74" s="138">
+      <c r="L74" s="129">
         <f t="shared" si="3"/>
         <v>0.53583443009237763</v>
       </c>
@@ -31614,7 +36342,7 @@
         <f t="shared" si="31"/>
         <v>734.31244521427379</v>
       </c>
-      <c r="I75" s="134">
+      <c r="I75" s="125">
         <f t="shared" si="24"/>
         <v>734.31244521427379</v>
       </c>
@@ -31623,7 +36351,7 @@
         <f t="shared" si="17"/>
         <v>0.11742814908387825</v>
       </c>
-      <c r="L75" s="138">
+      <c r="L75" s="129">
         <f t="shared" si="3"/>
         <v>0.59805665231459981</v>
       </c>
@@ -31778,7 +36506,7 @@
         <f>((G76-$C$21)/$C$17)</f>
         <v>826.9230851686641</v>
       </c>
-      <c r="I76" s="134">
+      <c r="I76" s="125">
         <f t="shared" si="24"/>
         <v>826.9230851686641</v>
       </c>
@@ -31787,7 +36515,7 @@
         <f>$B76+F$59</f>
         <v>0.12964545384783854</v>
       </c>
-      <c r="L76" s="138">
+      <c r="L76" s="129">
         <f>$K76/$C$30</f>
         <v>0.66027887453682199</v>
       </c>
@@ -31939,7 +36667,7 @@
         <f>((G77-$C$21)/$C$17)</f>
         <v>826.9230851686641</v>
       </c>
-      <c r="I77" s="135">
+      <c r="I77" s="126">
         <f t="shared" si="24"/>
         <v>826.9230851686641</v>
       </c>
@@ -31948,7 +36676,7 @@
         <f>$B77+F$59</f>
         <v>0.12964545384783854</v>
       </c>
-      <c r="L77" s="139">
+      <c r="L77" s="130">
         <f>$K77/$C$30</f>
         <v>0.66027887453682199</v>
       </c>
@@ -32194,7 +36922,7 @@
         <v>92.610639954390223</v>
       </c>
       <c r="L84" s="45">
-        <f t="shared" ref="L84:L92" si="46">L70-L$69</f>
+        <f t="shared" ref="L84:L91" si="46">L70-L$69</f>
         <v>6.2222222222222207E-2</v>
       </c>
       <c r="V84" s="35"/>
@@ -33498,8 +38226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDC0D66-3699-43B3-BD28-A78D25BF2BA6}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33514,49 +38242,49 @@
     <row r="1" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T1" s="89"/>
       <c r="U1" s="89"/>
-      <c r="W1" s="130" t="s">
+      <c r="W1" s="141" t="s">
         <v>222</v>
       </c>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130" t="s">
+      <c r="X1" s="141"/>
+      <c r="Y1" s="141" t="s">
         <v>223</v>
       </c>
-      <c r="Z1" s="130"/>
+      <c r="Z1" s="141"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="115"/>
       <c r="B2" s="115"/>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="140" t="s">
         <v>221</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="130" t="s">
+      <c r="D2" s="140"/>
+      <c r="E2" s="141" t="s">
         <v>220</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130" t="s">
+      <c r="F2" s="141"/>
+      <c r="G2" s="141" t="s">
         <v>219</v>
       </c>
-      <c r="H2" s="130"/>
+      <c r="H2" s="141"/>
       <c r="I2" s="120"/>
       <c r="J2" s="120"/>
-      <c r="K2" s="130" t="s">
+      <c r="K2" s="141" t="s">
         <v>221</v>
       </c>
-      <c r="L2" s="130"/>
+      <c r="L2" s="141"/>
       <c r="M2" s="120"/>
-      <c r="N2" s="130" t="s">
+      <c r="N2" s="141" t="s">
         <v>220</v>
       </c>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130" t="s">
+      <c r="O2" s="141"/>
+      <c r="P2" s="141" t="s">
         <v>219</v>
       </c>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130" t="s">
+      <c r="Q2" s="141"/>
+      <c r="R2" s="141" t="s">
         <v>224</v>
       </c>
-      <c r="S2" s="130"/>
+      <c r="S2" s="141"/>
       <c r="T2" s="89"/>
       <c r="U2" s="89"/>
       <c r="W2" s="115"/>
@@ -33614,7 +38342,7 @@
       <c r="S3" s="118" t="s">
         <v>217</v>
       </c>
-      <c r="T3" s="132" t="s">
+      <c r="T3" s="123" t="s">
         <v>225</v>
       </c>
       <c r="U3" s="89"/>
@@ -34264,4 +38992,432 @@
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3BA457-BC4D-4DD4-8D54-6D35018B9C7C}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="13" width="9.140625" style="89"/>
+    <col min="14" max="14" width="9.5703125" style="89" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" style="89" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="89"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N1" s="141" t="s">
+        <v>222</v>
+      </c>
+      <c r="O1" s="141"/>
+      <c r="P1" s="141" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q1" s="141"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="122"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="141" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="141"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="141" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141" t="s">
+        <v>224</v>
+      </c>
+      <c r="J2" s="141"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="118"/>
+      <c r="B3" s="118" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="118" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="118" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118" t="s">
+        <v>218</v>
+      </c>
+      <c r="H3" s="118" t="s">
+        <v>217</v>
+      </c>
+      <c r="I3" s="118" t="s">
+        <v>218</v>
+      </c>
+      <c r="J3" s="118" t="s">
+        <v>217</v>
+      </c>
+      <c r="K3" s="123" t="s">
+        <v>225</v>
+      </c>
+      <c r="N3" s="118" t="s">
+        <v>218</v>
+      </c>
+      <c r="O3" s="118" t="s">
+        <v>217</v>
+      </c>
+      <c r="P3" s="118" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q3" s="118" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="116" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="116">
+        <v>1</v>
+      </c>
+      <c r="C4" s="122">
+        <v>266</v>
+      </c>
+      <c r="D4" s="122">
+        <v>260</v>
+      </c>
+      <c r="E4" s="122"/>
+      <c r="G4" s="89">
+        <f>AVERAGE(C4:C6)</f>
+        <v>278</v>
+      </c>
+      <c r="H4" s="89">
+        <f>AVERAGE(D4:D6)</f>
+        <v>248</v>
+      </c>
+      <c r="I4" s="89">
+        <f>G4</f>
+        <v>278</v>
+      </c>
+      <c r="J4" s="89">
+        <f>H4</f>
+        <v>248</v>
+      </c>
+      <c r="K4" s="89">
+        <f>J4-I4</f>
+        <v>-30</v>
+      </c>
+      <c r="N4" s="6">
+        <f>[2]!linear_intp_2col('engine run install'!$I$65:$I$77,'engine run install'!$AA$65:$AA$77,I4)</f>
+        <v>0.19200017290754734</v>
+      </c>
+      <c r="O4" s="6">
+        <f>[2]!linear_intp_2col('engine run install'!$I$65:$I$77,'engine run install'!$AA$65:$AA$77,J4)</f>
+        <v>0.16127413491280052</v>
+      </c>
+      <c r="P4" s="6">
+        <f>[2]!linear_intp_2col('engine run install'!$I$65:$I$77,'engine run install'!$AJ$65:$AJ$77,I4)</f>
+        <v>0.25595491635800083</v>
+      </c>
+      <c r="Q4" s="6">
+        <f>[2]!linear_intp_2col('engine run install'!$I$65:$I$77,'engine run install'!$AJ$65:$AJ$77,J4)</f>
+        <v>0.21577471282640881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="116" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="116">
+        <v>1</v>
+      </c>
+      <c r="C5" s="122">
+        <v>290</v>
+      </c>
+      <c r="D5" s="122">
+        <v>236</v>
+      </c>
+      <c r="E5" s="122"/>
+      <c r="G5" s="89">
+        <f>AVERAGE(C7:C9)</f>
+        <v>523</v>
+      </c>
+      <c r="H5" s="89">
+        <f>AVERAGE(D7:D9)</f>
+        <v>460</v>
+      </c>
+      <c r="I5" s="89">
+        <f t="shared" ref="I5:J7" si="0">G5</f>
+        <v>523</v>
+      </c>
+      <c r="J5" s="89">
+        <f t="shared" si="0"/>
+        <v>460</v>
+      </c>
+      <c r="K5" s="89">
+        <f>J5-I5</f>
+        <v>-63</v>
+      </c>
+      <c r="N5" s="6">
+        <f>[2]!linear_intp_2col('engine run install'!$I$65:$I$77,'engine run install'!$AA$65:$AA$77,I5)</f>
+        <v>0.36236607430099321</v>
+      </c>
+      <c r="O5" s="6">
+        <f>[2]!linear_intp_2col('engine run install'!$I$65:$I$77,'engine run install'!$AA$65:$AA$77,J5)</f>
+        <v>0.32376977745636432</v>
+      </c>
+      <c r="P5" s="6">
+        <f>[2]!linear_intp_2col('engine run install'!$I$65:$I$77,'engine run install'!$AJ$65:$AJ$77,I5)</f>
+        <v>0.47874109510327623</v>
+      </c>
+      <c r="Q5" s="6">
+        <f>[2]!linear_intp_2col('engine run install'!$I$65:$I$77,'engine run install'!$AJ$65:$AJ$77,J5)</f>
+        <v>0.42826901461414613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="119" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="119">
+        <v>1</v>
+      </c>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="122"/>
+      <c r="G6" s="89">
+        <f>AVERAGE(C10:C12)</f>
+        <v>685</v>
+      </c>
+      <c r="H6" s="89">
+        <f>AVERAGE(D10:D12)</f>
+        <v>588.5</v>
+      </c>
+      <c r="I6" s="89">
+        <f t="shared" si="0"/>
+        <v>685</v>
+      </c>
+      <c r="J6" s="89">
+        <f t="shared" si="0"/>
+        <v>588.5</v>
+      </c>
+      <c r="K6" s="89">
+        <f>J6-I6</f>
+        <v>-96.5</v>
+      </c>
+      <c r="N6" s="6">
+        <f>[2]!linear_intp_2col('engine run install'!$I$65:$I$77,'engine run install'!$AA$65:$AA$77,I6)</f>
+        <v>0.45741847614690267</v>
+      </c>
+      <c r="O6" s="6">
+        <f>[2]!linear_intp_2col('engine run install'!$I$65:$I$77,'engine run install'!$AA$65:$AA$77,J6)</f>
+        <v>0.4024939702267582</v>
+      </c>
+      <c r="P6" s="6">
+        <f>[2]!linear_intp_2col('engine run install'!$I$65:$I$77,'engine run install'!$AJ$65:$AJ$77,I6)</f>
+        <v>0.60304038982485009</v>
+      </c>
+      <c r="Q6" s="6">
+        <f>[2]!linear_intp_2col('engine run install'!$I$65:$I$77,'engine run install'!$AJ$65:$AJ$77,J6)</f>
+        <v>0.53121603592927658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="116" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="116">
+        <v>2</v>
+      </c>
+      <c r="C7" s="122">
+        <v>540</v>
+      </c>
+      <c r="D7" s="122">
+        <v>450</v>
+      </c>
+      <c r="E7" s="122"/>
+      <c r="G7" s="89">
+        <f>AVERAGE(C13:C15)</f>
+        <v>729</v>
+      </c>
+      <c r="H7" s="89">
+        <f>AVERAGE(D13:D15)</f>
+        <v>735.5</v>
+      </c>
+      <c r="I7" s="89">
+        <f t="shared" si="0"/>
+        <v>729</v>
+      </c>
+      <c r="J7" s="89">
+        <f t="shared" si="0"/>
+        <v>735.5</v>
+      </c>
+      <c r="K7" s="89">
+        <f>J7-I7</f>
+        <v>6.5</v>
+      </c>
+      <c r="N7" s="6">
+        <f>[2]!linear_intp_2col('engine run install'!$I$65:$I$77,'engine run install'!$AA$65:$AA$77,I7)</f>
+        <v>0.48011140253539258</v>
+      </c>
+      <c r="O7" s="6">
+        <f>[2]!linear_intp_2col('engine run install'!$I$65:$I$77,'engine run install'!$AA$65:$AA$77,J7)</f>
+        <v>0.48343347818361815</v>
+      </c>
+      <c r="P7" s="6">
+        <f>[2]!linear_intp_2col('engine run install'!$I$65:$I$77,'engine run install'!$AJ$65:$AJ$77,I7)</f>
+        <v>0.6327157551021062</v>
+      </c>
+      <c r="Q7" s="6">
+        <f>[2]!linear_intp_2col('engine run install'!$I$65:$I$77,'engine run install'!$AJ$65:$AJ$77,J7)</f>
+        <v>0.63706000787286265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="116" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="116">
+        <v>2</v>
+      </c>
+      <c r="C8" s="122">
+        <v>506</v>
+      </c>
+      <c r="D8" s="122">
+        <v>470</v>
+      </c>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="119" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="119">
+        <v>2</v>
+      </c>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="K9" s="89" t="e" cm="1">
+        <f t="array" ref="K9">avg</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="116">
+        <v>3</v>
+      </c>
+      <c r="C10" s="122">
+        <v>690</v>
+      </c>
+      <c r="D10" s="122">
+        <v>575</v>
+      </c>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" s="116">
+        <v>3</v>
+      </c>
+      <c r="C11" s="122">
+        <v>680</v>
+      </c>
+      <c r="D11" s="122">
+        <v>602</v>
+      </c>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="119" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="119">
+        <v>3</v>
+      </c>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="116" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" s="116">
+        <v>4</v>
+      </c>
+      <c r="C13" s="122">
+        <v>728</v>
+      </c>
+      <c r="D13" s="122">
+        <v>735</v>
+      </c>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="116" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="116">
+        <v>4</v>
+      </c>
+      <c r="C14" s="122">
+        <v>730</v>
+      </c>
+      <c r="D14" s="122">
+        <v>736</v>
+      </c>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="116" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" s="116">
+        <v>4</v>
+      </c>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="114" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>